--- a/console/Networking/kubernetesExcel/components/checkCertificate.xlsx
+++ b/console/Networking/kubernetesExcel/components/checkCertificate.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.15\Console_190116-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -24,9 +19,6 @@
     <t>checkCertificate_i18nKey_1</t>
   </si>
   <si>
-    <t>User Name</t>
-  </si>
-  <si>
     <t>checkCertificate_i18nKey_2</t>
   </si>
   <si>
@@ -58,9 +50,6 @@
   </si>
   <si>
     <t>checkCertificate_i18nKey_8</t>
-  </si>
-  <si>
-    <t>Client Private Key</t>
   </si>
   <si>
     <t>checkCertificate_i18nKey_9</t>
@@ -191,7 +180,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Copy client private key</t>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy client key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,14 +589,15 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,98 +605,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
